--- a/data/pca/factorExposure/factorExposure_2013-01-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-01-03.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0006237334554306174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001793708574227589</v>
+      </c>
+      <c r="C2">
+        <v>-0.03181626136247908</v>
+      </c>
+      <c r="D2">
+        <v>0.005826623905556596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0005190464439274543</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006425743464555207</v>
+      </c>
+      <c r="C4">
+        <v>-0.08441156560401591</v>
+      </c>
+      <c r="D4">
+        <v>0.07984133319110098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0001180600544359815</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01444105809588844</v>
+      </c>
+      <c r="C6">
+        <v>-0.114333920295574</v>
+      </c>
+      <c r="D6">
+        <v>0.03257374748629813</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001739153953001296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005140907647994205</v>
+      </c>
+      <c r="C7">
+        <v>-0.05803647584476886</v>
+      </c>
+      <c r="D7">
+        <v>0.03163008136543287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.000640976148689456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005936582245725791</v>
+      </c>
+      <c r="C8">
+        <v>-0.03869661774817405</v>
+      </c>
+      <c r="D8">
+        <v>0.04121851480850706</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003216682855058951</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.00458371275609478</v>
+      </c>
+      <c r="C9">
+        <v>-0.07051487582163697</v>
+      </c>
+      <c r="D9">
+        <v>0.07237584154939246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002443782373644697</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005444422260739639</v>
+      </c>
+      <c r="C10">
+        <v>-0.05846790913152542</v>
+      </c>
+      <c r="D10">
+        <v>-0.1972129407882046</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002501328528059098</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005823878003562085</v>
+      </c>
+      <c r="C11">
+        <v>-0.0793360600811919</v>
+      </c>
+      <c r="D11">
+        <v>0.06064880182602982</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0004673102040347576</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004163709409788749</v>
+      </c>
+      <c r="C12">
+        <v>-0.0637360000188926</v>
+      </c>
+      <c r="D12">
+        <v>0.04734351122525658</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002436178920743826</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.009043986492728426</v>
+      </c>
+      <c r="C13">
+        <v>-0.06810988438296035</v>
+      </c>
+      <c r="D13">
+        <v>0.05809552031711049</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0007501387166798247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001656252194468851</v>
+      </c>
+      <c r="C14">
+        <v>-0.04521936019584405</v>
+      </c>
+      <c r="D14">
+        <v>0.009987782115490468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0006503697855256925</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006083098853793146</v>
+      </c>
+      <c r="C15">
+        <v>-0.04186760059990411</v>
+      </c>
+      <c r="D15">
+        <v>0.02896512717694922</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0007973790779178815</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005160942821307338</v>
+      </c>
+      <c r="C16">
+        <v>-0.06497644699075471</v>
+      </c>
+      <c r="D16">
+        <v>0.04822025953553551</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0001158563182267569</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009087553122067361</v>
+      </c>
+      <c r="C20">
+        <v>-0.06559174412590865</v>
+      </c>
+      <c r="D20">
+        <v>0.04197071558151452</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005974676578376953</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.01008985664794601</v>
+      </c>
+      <c r="C21">
+        <v>-0.02180857893410194</v>
+      </c>
+      <c r="D21">
+        <v>0.03624463003863827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01628695486706136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006562815853110246</v>
+      </c>
+      <c r="C22">
+        <v>-0.09412324905216687</v>
+      </c>
+      <c r="D22">
+        <v>0.1115284980187199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01658756023862246</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006378944643382571</v>
+      </c>
+      <c r="C23">
+        <v>-0.09493117212626051</v>
+      </c>
+      <c r="D23">
+        <v>0.1115724293575323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001338721576690224</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005601857619898413</v>
+      </c>
+      <c r="C24">
+        <v>-0.07623574006017465</v>
+      </c>
+      <c r="D24">
+        <v>0.06201158018555134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003913266353619124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003160668161192352</v>
+      </c>
+      <c r="C25">
+        <v>-0.07842453403738006</v>
+      </c>
+      <c r="D25">
+        <v>0.0670329419375897</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.004605171482309414</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003691032445407236</v>
+      </c>
+      <c r="C26">
+        <v>-0.04090516986769579</v>
+      </c>
+      <c r="D26">
+        <v>0.0217935589752755</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004876598947275855</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0006673789082085777</v>
+      </c>
+      <c r="C28">
+        <v>-0.1080744049210722</v>
+      </c>
+      <c r="D28">
+        <v>-0.3171607581825554</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001105213816108577</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003377040487151508</v>
+      </c>
+      <c r="C29">
+        <v>-0.05028260100124494</v>
+      </c>
+      <c r="D29">
+        <v>0.00739043908241175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.00335524676479318</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009754089761262442</v>
+      </c>
+      <c r="C30">
+        <v>-0.1426485423973935</v>
+      </c>
+      <c r="D30">
+        <v>0.09592208137389541</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001108544074093012</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006353829769948326</v>
+      </c>
+      <c r="C31">
+        <v>-0.04473955743710296</v>
+      </c>
+      <c r="D31">
+        <v>0.03086365899619414</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0004516530171602624</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004262018488213548</v>
+      </c>
+      <c r="C32">
+        <v>-0.04042685970130775</v>
+      </c>
+      <c r="D32">
+        <v>0.02054462298711294</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.00277839242241175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008634619427935239</v>
+      </c>
+      <c r="C33">
+        <v>-0.08661606761885082</v>
+      </c>
+      <c r="D33">
+        <v>0.06550761211309178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004377856710716793</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004064974112274471</v>
+      </c>
+      <c r="C34">
+        <v>-0.05792807581238969</v>
+      </c>
+      <c r="D34">
+        <v>0.0532313055622662</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.001451708766433584</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005082825163951032</v>
+      </c>
+      <c r="C35">
+        <v>-0.04056225433113058</v>
+      </c>
+      <c r="D35">
+        <v>0.01612161867821882</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.00373576366291322</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001063638586427143</v>
+      </c>
+      <c r="C36">
+        <v>-0.0245308203805903</v>
+      </c>
+      <c r="D36">
+        <v>0.02184086656481699</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002356748219364032</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009546990809851533</v>
+      </c>
+      <c r="C38">
+        <v>-0.03476636764725654</v>
+      </c>
+      <c r="D38">
+        <v>0.01474901134713788</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01161949618328627</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0003584819160055716</v>
+      </c>
+      <c r="C39">
+        <v>-0.115675047269994</v>
+      </c>
+      <c r="D39">
+        <v>0.07298896559413136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.00960748771185482</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002847470098075813</v>
+      </c>
+      <c r="C40">
+        <v>-0.09060253634117103</v>
+      </c>
+      <c r="D40">
+        <v>0.00907670043116169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-1.103531741473079e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007304351341912564</v>
+      </c>
+      <c r="C41">
+        <v>-0.03791261073497926</v>
+      </c>
+      <c r="D41">
+        <v>0.03633353307570754</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.0028562957769435</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.004166133386997121</v>
+      </c>
+      <c r="C43">
+        <v>-0.05375394024148411</v>
+      </c>
+      <c r="D43">
+        <v>0.02423484908259159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004237635329043824</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.00357763098446208</v>
+      </c>
+      <c r="C44">
+        <v>-0.1094493461076352</v>
+      </c>
+      <c r="D44">
+        <v>0.06789324303954208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0009481913876068951</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002301464994724525</v>
+      </c>
+      <c r="C46">
+        <v>-0.03344699105765001</v>
+      </c>
+      <c r="D46">
+        <v>0.03271449839600096</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0004072566563909036</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002798019601674644</v>
+      </c>
+      <c r="C47">
+        <v>-0.03759146693890573</v>
+      </c>
+      <c r="D47">
+        <v>0.02169052627504951</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.00374287795589783</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006718390590837054</v>
+      </c>
+      <c r="C48">
+        <v>-0.03062701010358624</v>
+      </c>
+      <c r="D48">
+        <v>0.03236256659860823</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01185878234383509</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01575990448558685</v>
+      </c>
+      <c r="C49">
+        <v>-0.1852389556321604</v>
+      </c>
+      <c r="D49">
+        <v>0.0134179996836169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.00174029631293843</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003717833975245742</v>
+      </c>
+      <c r="C50">
+        <v>-0.04332749694766972</v>
+      </c>
+      <c r="D50">
+        <v>0.03642085160817781</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0009685333192815218</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004483295734196393</v>
+      </c>
+      <c r="C51">
+        <v>-0.02588243862032851</v>
+      </c>
+      <c r="D51">
+        <v>0.02023564924391657</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0008223066931829216</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02125867128260861</v>
+      </c>
+      <c r="C53">
+        <v>-0.1696666253897894</v>
+      </c>
+      <c r="D53">
+        <v>0.02696362310444517</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.00125229973785594</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008861858663062593</v>
+      </c>
+      <c r="C54">
+        <v>-0.05415045461007518</v>
+      </c>
+      <c r="D54">
+        <v>0.04438783606985825</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003503587566318592</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.00972186862363269</v>
+      </c>
+      <c r="C55">
+        <v>-0.1081300790098919</v>
+      </c>
+      <c r="D55">
+        <v>0.0392475899483038</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002779471585427809</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02040559275278161</v>
+      </c>
+      <c r="C56">
+        <v>-0.1733649860324273</v>
+      </c>
+      <c r="D56">
+        <v>0.02584203026748963</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007041169460989389</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.019898914805008</v>
+      </c>
+      <c r="C58">
+        <v>-0.1120417685690861</v>
+      </c>
+      <c r="D58">
+        <v>0.04823736194287547</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006590469596881204</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.01016975714813753</v>
+      </c>
+      <c r="C59">
+        <v>-0.1654509398175536</v>
+      </c>
+      <c r="D59">
+        <v>-0.3210082980819163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003683598487921888</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02451392013621204</v>
+      </c>
+      <c r="C60">
+        <v>-0.2225632624089657</v>
+      </c>
+      <c r="D60">
+        <v>0.03492674988313062</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01366129145945286</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001550039087158904</v>
+      </c>
+      <c r="C61">
+        <v>-0.09500465539491428</v>
+      </c>
+      <c r="D61">
+        <v>0.05603448203270393</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1633838217514841</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1450615620540473</v>
+      </c>
+      <c r="C62">
+        <v>-0.09168394521807476</v>
+      </c>
+      <c r="D62">
+        <v>0.04458342738092356</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0004885126416868095</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006402849535818734</v>
+      </c>
+      <c r="C63">
+        <v>-0.0547725053185289</v>
+      </c>
+      <c r="D63">
+        <v>0.02756831881275329</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.0007969781848253767</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01550961762130401</v>
+      </c>
+      <c r="C64">
+        <v>-0.1046717191893493</v>
+      </c>
+      <c r="D64">
+        <v>0.05963540317378231</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002789860320703008</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01831747896402275</v>
+      </c>
+      <c r="C65">
+        <v>-0.12495041440792</v>
+      </c>
+      <c r="D65">
+        <v>0.01864838270458805</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.00769904490858661</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.0133715829382224</v>
+      </c>
+      <c r="C66">
+        <v>-0.1595194320081889</v>
+      </c>
+      <c r="D66">
+        <v>0.1137526021424882</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003595959939478017</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01577382422769225</v>
+      </c>
+      <c r="C67">
+        <v>-0.06568706873734415</v>
+      </c>
+      <c r="D67">
+        <v>0.02669886266405768</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006020444161005251</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0008670205605893321</v>
+      </c>
+      <c r="C68">
+        <v>-0.08775157763724947</v>
+      </c>
+      <c r="D68">
+        <v>-0.2595227770027123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002109596633867606</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006306893306281379</v>
+      </c>
+      <c r="C69">
+        <v>-0.05032707014545457</v>
+      </c>
+      <c r="D69">
+        <v>0.03978689182644544</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0001987853412646802</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001853289803015905</v>
+      </c>
+      <c r="C70">
+        <v>-0.002580410509658955</v>
+      </c>
+      <c r="D70">
+        <v>0.002826104421682871</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>1.362611657774828e-05</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005983521252440141</v>
+      </c>
+      <c r="C71">
+        <v>-0.0956994720816696</v>
+      </c>
+      <c r="D71">
+        <v>-0.3062027065031344</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003920026744450578</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01651450014266502</v>
+      </c>
+      <c r="C72">
+        <v>-0.15384651152622</v>
+      </c>
+      <c r="D72">
+        <v>0.02056862475085332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01201023131386897</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03139379942199218</v>
+      </c>
+      <c r="C73">
+        <v>-0.280032573847488</v>
+      </c>
+      <c r="D73">
+        <v>0.05629328892059679</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004496980322380517</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002159772468152068</v>
+      </c>
+      <c r="C74">
+        <v>-0.104334177076965</v>
+      </c>
+      <c r="D74">
+        <v>0.03622382440993923</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002523344611015395</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01121864930144044</v>
+      </c>
+      <c r="C75">
+        <v>-0.1247633566280052</v>
+      </c>
+      <c r="D75">
+        <v>0.02355902936128759</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.008891915181331528</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02208487669225534</v>
+      </c>
+      <c r="C76">
+        <v>-0.1484197050933937</v>
+      </c>
+      <c r="D76">
+        <v>0.06028343422127511</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001502189255706018</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02367042027364563</v>
+      </c>
+      <c r="C77">
+        <v>-0.1218760337248621</v>
+      </c>
+      <c r="D77">
+        <v>0.08689650010554154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0003545695817520095</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01495432144495403</v>
+      </c>
+      <c r="C78">
+        <v>-0.09573547581696024</v>
+      </c>
+      <c r="D78">
+        <v>0.07192052422832565</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02356766250162909</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03801603371874515</v>
+      </c>
+      <c r="C79">
+        <v>-0.1565436908622757</v>
+      </c>
+      <c r="D79">
+        <v>0.0339930617089176</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006840593829634998</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01046557310021588</v>
+      </c>
+      <c r="C80">
+        <v>-0.04020017090494651</v>
+      </c>
+      <c r="D80">
+        <v>0.0279098814925936</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.000829091330484693</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01555653654777465</v>
+      </c>
+      <c r="C81">
+        <v>-0.1268022586471179</v>
+      </c>
+      <c r="D81">
+        <v>0.03898865646467396</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005791926621657975</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02009791394536568</v>
+      </c>
+      <c r="C82">
+        <v>-0.1408049400413302</v>
+      </c>
+      <c r="D82">
+        <v>0.03764586403963269</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.009361919354719701</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01007869229698339</v>
+      </c>
+      <c r="C83">
+        <v>-0.05563725020245369</v>
+      </c>
+      <c r="D83">
+        <v>0.05390438963134733</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01311528303186872</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01172872098622824</v>
+      </c>
+      <c r="C84">
+        <v>-0.03737198333958232</v>
+      </c>
+      <c r="D84">
+        <v>-0.008444776685886186</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01405971639138011</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02844706460909493</v>
+      </c>
+      <c r="C85">
+        <v>-0.1234879872476849</v>
+      </c>
+      <c r="D85">
+        <v>0.04409039782352512</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001342724857347137</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.006023958046684215</v>
+      </c>
+      <c r="C86">
+        <v>-0.05059505819259386</v>
+      </c>
+      <c r="D86">
+        <v>0.02869669117622187</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.00415436684098576</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01040326443465479</v>
+      </c>
+      <c r="C87">
+        <v>-0.1295143085016852</v>
+      </c>
+      <c r="D87">
+        <v>0.07300140929720381</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01154009297050864</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002836114828420163</v>
+      </c>
+      <c r="C88">
+        <v>-0.0647770248605726</v>
+      </c>
+      <c r="D88">
+        <v>0.01789933713321068</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01382265455389598</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.0009787417455296029</v>
+      </c>
+      <c r="C89">
+        <v>-0.1482614440051991</v>
+      </c>
+      <c r="D89">
+        <v>-0.3409835353655818</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.000647167847813188</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007262648805938961</v>
+      </c>
+      <c r="C90">
+        <v>-0.1216723227342476</v>
+      </c>
+      <c r="D90">
+        <v>-0.3194981755769931</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0008343265751477948</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01057866491318099</v>
+      </c>
+      <c r="C91">
+        <v>-0.1002120576469278</v>
+      </c>
+      <c r="D91">
+        <v>0.02024088191656472</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007420532220072937</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001220608901921122</v>
+      </c>
+      <c r="C92">
+        <v>-0.1353133733325706</v>
+      </c>
+      <c r="D92">
+        <v>-0.3262505071050986</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-4.477297061839017e-05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005146641171056164</v>
+      </c>
+      <c r="C93">
+        <v>-0.1055208169658323</v>
+      </c>
+      <c r="D93">
+        <v>-0.3006273676199963</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003560918283615806</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02275400409985697</v>
+      </c>
+      <c r="C94">
+        <v>-0.146005889066802</v>
+      </c>
+      <c r="D94">
+        <v>0.05315391026839499</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004794693226550016</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01663886885956896</v>
+      </c>
+      <c r="C95">
+        <v>-0.1247501792261222</v>
+      </c>
+      <c r="D95">
+        <v>0.05554466861875381</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001611713585345666</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03658720278790243</v>
+      </c>
+      <c r="C97">
+        <v>-0.212450458920697</v>
+      </c>
+      <c r="D97">
+        <v>-0.003804414702593382</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.002605579628402432</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03707707602844729</v>
+      </c>
+      <c r="C98">
+        <v>-0.2483617186601879</v>
+      </c>
+      <c r="D98">
+        <v>0.05093790878888903</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9848418602436751</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9819461993051398</v>
+      </c>
+      <c r="C99">
+        <v>0.1183683905722554</v>
+      </c>
+      <c r="D99">
+        <v>-0.02745515989354715</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001001637887197257</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003414948977101281</v>
+      </c>
+      <c r="C101">
+        <v>-0.05045977990938517</v>
+      </c>
+      <c r="D101">
+        <v>0.007538460834737493</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
